--- a/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-platform-form.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-platform-form.xlsx
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-05-29</t>
+    <t>2020-07-06</t>
   </si>
   <si>
     <t>hzero</t>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-platform-form.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-platform-form.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="99">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-06</t>
+    <t>2020-09-11</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2031,7 +2031,10 @@
     <t>enabled_flag</t>
   </si>
   <si>
-    <t>#tenant_id</t>
+    <t>tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>tenant_id:en_US</t>
   </si>
   <si>
     <t>hpfm_form_header-8</t>
@@ -2098,6 +2101,9 @@
   </si>
   <si>
     <t>value_constraint</t>
+  </si>
+  <si>
+    <t>value_set</t>
   </si>
   <si>
     <t>*</t>
@@ -2141,7 +2147,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="34">
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2317,12 +2323,22 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2478,7 +2494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2561,6 +2577,8 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3146,7 +3164,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3217,31 +3235,37 @@
       <c r="M7" t="s" s="42">
         <v>62</v>
       </c>
+      <c r="N7" t="s" s="43">
+        <v>63</v>
+      </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M8" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="N8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -3252,163 +3276,178 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" t="s" s="43">
         <v>71</v>
       </c>
-      <c r="E10" t="s" s="44">
+      <c r="D10" t="s" s="44">
         <v>72</v>
       </c>
-      <c r="F10" t="s" s="45">
+      <c r="E10" t="s" s="45">
         <v>73</v>
       </c>
-      <c r="G10" t="s" s="46">
+      <c r="F10" t="s" s="46">
         <v>74</v>
       </c>
+      <c r="G10" t="s" s="47">
+        <v>75</v>
+      </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R10" t="s">
         <v>61</v>
       </c>
-      <c r="S10" t="s" s="47">
+      <c r="S10" t="s" s="48">
         <v>62</v>
+      </c>
+      <c r="T10" t="s" s="49">
+        <v>63</v>
+      </c>
+      <c r="U10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F11">
         <f>表单配置!$E$8</f>
       </c>
       <c r="G11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S11" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="T11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F12">
         <f>表单配置!$E$8</f>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L12" t="s">
+        <v>94</v>
+      </c>
+      <c r="M12" t="s">
         <v>91</v>
       </c>
-      <c r="I12" t="s">
-        <v>91</v>
-      </c>
-      <c r="L12" t="s">
-        <v>92</v>
-      </c>
-      <c r="M12" t="s">
-        <v>89</v>
-      </c>
       <c r="N12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S12" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="T12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F13">
         <f>表单配置!$E$8</f>
       </c>
       <c r="G13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P13" t="s">
+        <v>70</v>
+      </c>
+      <c r="R13" t="s">
         <v>69</v>
       </c>
-      <c r="R13" t="s">
-        <v>68</v>
-      </c>
       <c r="S13" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="T13" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-platform-form.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-platform-form.xlsx
@@ -3,30 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-message\src\main\resources\script\db\init-data\hzero_message\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="14220" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="表单配置" r:id="rId5" sheetId="2"/>
+    <sheet name="表单配置" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="105">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-11</t>
+    <t>2021-02-02</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2031,10 +2031,13 @@
     <t>enabled_flag</t>
   </si>
   <si>
-    <t>tenant_id:zh_CN</t>
-  </si>
-  <si>
-    <t>tenant_id:en_US</t>
+    <t>#tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>#tenant_id:en_US</t>
+  </si>
+  <si>
+    <t>last_updated_by</t>
   </si>
   <si>
     <t>hpfm_form_header-8</t>
@@ -2046,18 +2049,27 @@
     <t>京东语音消息</t>
   </si>
   <si>
+    <t>Jingdong voice message</t>
+  </si>
+  <si>
     <t>HMSG_CALL</t>
   </si>
   <si>
     <t>系统数据,勿删</t>
   </si>
   <si>
+    <t>System data, do not delete</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>-1</t>
+  </si>
+  <si>
     <t>表单配置行</t>
   </si>
   <si>
@@ -2115,6 +2127,9 @@
     <t>账户编码</t>
   </si>
   <si>
+    <t>Account code</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
@@ -2125,6 +2140,9 @@
   </si>
   <si>
     <t>账户key</t>
+  </si>
+  <si>
+    <t>Account key</t>
   </si>
   <si>
     <t>20</t>
@@ -2146,7 +2164,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="36">
     <font>
       <sz val="12"/>
@@ -2266,94 +2283,112 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2546,6 +2581,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2561,24 +2614,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2925,56 +2960,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.08203125" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:8">
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
     </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="30" t="s">
+    <row r="4" spans="1:8">
+      <c r="C4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -2991,7 +3026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
+    <row r="7" spans="1:8">
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -3011,7 +3046,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="51.75">
+    <row r="9" spans="1:8" ht="52.2">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
@@ -3025,7 +3060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
+    <row r="10" spans="1:8" ht="52.2">
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
@@ -3036,7 +3071,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
+    <row r="11" spans="1:8" ht="69.599999999999994">
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -3068,7 +3103,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="34.5">
+    <row r="15" spans="1:8" ht="34.799999999999997">
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
@@ -3085,13 +3120,13 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
     </row>
-    <row r="20" spans="3:5" ht="18">
+    <row r="20" spans="3:5">
       <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
@@ -3099,7 +3134,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
+    <row r="21" spans="3:5">
       <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
@@ -3107,7 +3142,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
+    <row r="22" spans="3:5">
       <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
@@ -3115,7 +3150,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
+    <row r="23" spans="3:5">
       <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
@@ -3127,21 +3162,21 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="45"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27"/>
+      <c r="E26" s="45"/>
     </row>
-    <row r="27" spans="3:5" ht="51.75">
+    <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
@@ -3163,39 +3198,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:U13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:22">
+      <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="B1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="34">
+      <c r="C1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="35">
+      <c r="D1" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="36">
+    <row r="4" spans="1:22">
+      <c r="E4" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="37">
+      <c r="F4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="38">
+      <c r="G4" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3205,13 +3242,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="39">
+      <c r="D7" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="40">
+      <c r="E7" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="41">
+      <c r="F7" s="36" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -3232,43 +3269,52 @@
       <c r="L7" t="s">
         <v>61</v>
       </c>
-      <c r="M7" t="s" s="42">
+      <c r="M7" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="N7" t="s" s="43">
+      <c r="N7" s="38" t="s">
         <v>63</v>
       </c>
+      <c r="O7" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:22">
       <c r="E8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="K8" t="s">
+        <v>71</v>
       </c>
       <c r="L8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N8" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="O8" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -3276,181 +3322,198 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" t="s" s="44">
-        <v>72</v>
-      </c>
-      <c r="E10" t="s" s="45">
-        <v>73</v>
-      </c>
-      <c r="F10" t="s" s="46">
-        <v>74</v>
-      </c>
-      <c r="G10" t="s" s="47">
         <v>75</v>
       </c>
+      <c r="D10" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>79</v>
+      </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="R10" t="s">
         <v>61</v>
       </c>
-      <c r="S10" t="s" s="48">
+      <c r="S10" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="T10" t="s" s="49">
+      <c r="T10" s="44" t="s">
         <v>63</v>
       </c>
       <c r="U10" t="s">
-        <v>86</v>
+        <v>90</v>
+      </c>
+      <c r="V10" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:22">
       <c r="E11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11">
+        <v>91</v>
+      </c>
+      <c r="F11" t="str">
         <f>表单配置!$E$8</f>
+        <v>hpfm_form_header-8</v>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I11" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L11" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M11" t="s">
+        <v>96</v>
+      </c>
+      <c r="N11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" t="s">
+        <v>72</v>
+      </c>
+      <c r="R11" t="s">
+        <v>72</v>
+      </c>
+      <c r="S11" t="s">
+        <v>73</v>
+      </c>
+      <c r="T11" t="s">
+        <v>73</v>
+      </c>
+      <c r="V11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="E12" t="s">
         <v>91</v>
       </c>
-      <c r="N11" t="s">
-        <v>69</v>
-      </c>
-      <c r="O11" t="s">
-        <v>69</v>
-      </c>
-      <c r="R11" t="s">
-        <v>69</v>
-      </c>
-      <c r="S11" t="s">
-        <v>70</v>
-      </c>
-      <c r="T11" t="s">
-        <v>70</v>
+      <c r="F12" t="str">
+        <f>表单配置!$E$8</f>
+        <v>hpfm_form_header-8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" t="s">
+        <v>99</v>
+      </c>
+      <c r="L12" t="s">
+        <v>100</v>
+      </c>
+      <c r="M12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N12" t="s">
+        <v>72</v>
+      </c>
+      <c r="O12" t="s">
+        <v>72</v>
+      </c>
+      <c r="R12" t="s">
+        <v>72</v>
+      </c>
+      <c r="S12" t="s">
+        <v>73</v>
+      </c>
+      <c r="T12" t="s">
+        <v>73</v>
+      </c>
+      <c r="V12" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="12">
-      <c r="E12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12">
+    <row r="13" spans="1:22">
+      <c r="E13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" t="str">
         <f>表单配置!$E$8</f>
-      </c>
-      <c r="G12" t="s">
-        <v>92</v>
-      </c>
-      <c r="H12" t="s">
-        <v>93</v>
-      </c>
-      <c r="I12" t="s">
-        <v>93</v>
-      </c>
-      <c r="L12" t="s">
-        <v>94</v>
-      </c>
-      <c r="M12" t="s">
-        <v>91</v>
-      </c>
-      <c r="N12" t="s">
-        <v>69</v>
-      </c>
-      <c r="O12" t="s">
-        <v>69</v>
-      </c>
-      <c r="R12" t="s">
-        <v>69</v>
-      </c>
-      <c r="S12" t="s">
-        <v>70</v>
-      </c>
-      <c r="T12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13">
-        <f>表单配置!$E$8</f>
+        <v>hpfm_form_header-8</v>
       </c>
       <c r="G13" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" t="s">
+        <v>103</v>
+      </c>
+      <c r="L13" t="s">
+        <v>104</v>
+      </c>
+      <c r="M13" t="s">
         <v>96</v>
       </c>
-      <c r="I13" t="s">
-        <v>97</v>
-      </c>
-      <c r="L13" t="s">
-        <v>98</v>
-      </c>
-      <c r="M13" t="s">
-        <v>91</v>
-      </c>
       <c r="N13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="S13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T13" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="V13" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-platform-form.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-platform-form.xlsx
@@ -3,30 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-message\src\main\resources\script\db\init-data\hzero_message\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="14220" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="表单配置" sheetId="2" r:id="rId2"/>
+    <sheet name="表单配置" r:id="rId5" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="107">
   <si>
     <r>
       <rPr>
@@ -2037,6 +2037,9 @@
     <t>#tenant_id:en_US</t>
   </si>
   <si>
+    <t>last_update_date</t>
+  </si>
+  <si>
     <t>last_updated_by</t>
   </si>
   <si>
@@ -2065,6 +2068,9 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>now</t>
   </si>
   <si>
     <t>-1</t>
@@ -2164,6 +2170,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="36">
     <font>
       <sz val="12"/>
@@ -2283,112 +2290,94 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2581,24 +2570,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2614,6 +2585,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2960,56 +2949,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.08203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.08203125" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="18">
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="47" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
-    <row r="4" spans="1:8">
-      <c r="C4" s="48" t="s">
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3026,7 +3015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="18">
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -3046,7 +3035,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="52.2">
+    <row r="9" spans="1:8" ht="51.75">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
@@ -3060,7 +3049,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
+    <row r="10" spans="1:8" ht="51.75">
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
@@ -3071,7 +3060,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
+    <row r="11" spans="1:8" ht="69">
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -3103,7 +3092,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
+    <row r="15" spans="1:8" ht="34.5">
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
@@ -3120,13 +3109,13 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
@@ -3134,7 +3123,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" ht="18">
       <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
@@ -3142,7 +3131,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" ht="18">
       <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
@@ -3150,7 +3139,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" ht="18">
       <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
@@ -3162,21 +3151,21 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="45"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="45" t="s">
+      <c r="D26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="45"/>
+      <c r="E26" s="27"/>
     </row>
-    <row r="27" spans="3:5" ht="52.2">
+    <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
@@ -3198,41 +3187,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="27" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="32">
         <v>44</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" t="s" s="33">
         <v>45</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" t="s" s="34">
         <v>9</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" t="s" s="35">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
-      <c r="E4" s="31" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="36">
         <v>47</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" t="s" s="37">
         <v>48</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" t="s" s="38">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3242,13 +3229,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" t="s" s="39">
         <v>53</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" t="s" s="40">
         <v>54</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" t="s" s="41">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -3269,52 +3256,58 @@
       <c r="L7" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="37" t="s">
+      <c r="M7" t="s" s="42">
         <v>62</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" t="s" s="43">
         <v>63</v>
       </c>
       <c r="O7" t="s">
         <v>64</v>
       </c>
+      <c r="P7" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8">
       <c r="E8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O8" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="P8" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -3322,198 +3315,205 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="D10" t="s" s="44">
         <v>78</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="E10" t="s" s="45">
         <v>79</v>
       </c>
+      <c r="F10" t="s" s="46">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s" s="47">
+        <v>81</v>
+      </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R10" t="s">
         <v>61</v>
       </c>
-      <c r="S10" s="43" t="s">
+      <c r="S10" t="s" s="48">
         <v>62</v>
       </c>
-      <c r="T10" s="44" t="s">
+      <c r="T10" t="s" s="49">
         <v>63</v>
       </c>
       <c r="U10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="V10" t="s">
         <v>64</v>
       </c>
+      <c r="W10" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11">
       <c r="E11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" t="str">
+        <v>93</v>
+      </c>
+      <c r="F11">
         <f>表单配置!$E$8</f>
-        <v>hpfm_form_header-8</v>
       </c>
       <c r="G11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" t="s">
+        <v>97</v>
+      </c>
+      <c r="M11" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" t="s">
+        <v>73</v>
+      </c>
+      <c r="O11" t="s">
+        <v>73</v>
+      </c>
+      <c r="R11" t="s">
+        <v>73</v>
+      </c>
+      <c r="S11" t="s">
+        <v>74</v>
+      </c>
+      <c r="T11" t="s">
+        <v>74</v>
+      </c>
+      <c r="V11" t="s">
+        <v>75</v>
+      </c>
+      <c r="W11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
         <v>93</v>
       </c>
-      <c r="I11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L11" t="s">
-        <v>95</v>
-      </c>
-      <c r="M11" t="s">
-        <v>96</v>
-      </c>
-      <c r="N11" t="s">
-        <v>72</v>
-      </c>
-      <c r="O11" t="s">
-        <v>72</v>
-      </c>
-      <c r="R11" t="s">
-        <v>72</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="F12">
+        <f>表单配置!$E$8</f>
+      </c>
+      <c r="G12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" t="s">
+        <v>102</v>
+      </c>
+      <c r="M12" t="s">
+        <v>98</v>
+      </c>
+      <c r="N12" t="s">
         <v>73</v>
       </c>
-      <c r="T11" t="s">
+      <c r="O12" t="s">
         <v>73</v>
       </c>
-      <c r="V11" t="s">
+      <c r="R12" t="s">
+        <v>73</v>
+      </c>
+      <c r="S12" t="s">
         <v>74</v>
       </c>
+      <c r="T12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V12" t="s">
+        <v>75</v>
+      </c>
+      <c r="W12" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="12" spans="1:22">
-      <c r="E12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" t="str">
+    <row r="13">
+      <c r="E13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13">
         <f>表单配置!$E$8</f>
-        <v>hpfm_form_header-8</v>
-      </c>
-      <c r="G12" t="s">
-        <v>97</v>
-      </c>
-      <c r="H12" t="s">
+      </c>
+      <c r="G13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" t="s">
+        <v>105</v>
+      </c>
+      <c r="L13" t="s">
+        <v>106</v>
+      </c>
+      <c r="M13" t="s">
         <v>98</v>
       </c>
-      <c r="I12" t="s">
-        <v>99</v>
-      </c>
-      <c r="L12" t="s">
-        <v>100</v>
-      </c>
-      <c r="M12" t="s">
-        <v>96</v>
-      </c>
-      <c r="N12" t="s">
-        <v>72</v>
-      </c>
-      <c r="O12" t="s">
-        <v>72</v>
-      </c>
-      <c r="R12" t="s">
-        <v>72</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="N13" t="s">
         <v>73</v>
       </c>
-      <c r="T12" t="s">
+      <c r="O13" t="s">
         <v>73</v>
       </c>
-      <c r="V12" t="s">
+      <c r="P13" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="E13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" t="str">
-        <f>表单配置!$E$8</f>
-        <v>hpfm_form_header-8</v>
-      </c>
-      <c r="G13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13" t="s">
-        <v>102</v>
-      </c>
-      <c r="I13" t="s">
-        <v>103</v>
-      </c>
-      <c r="L13" t="s">
-        <v>104</v>
-      </c>
-      <c r="M13" t="s">
-        <v>96</v>
-      </c>
-      <c r="N13" t="s">
-        <v>72</v>
-      </c>
-      <c r="O13" t="s">
-        <v>72</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>73</v>
       </c>
-      <c r="R13" t="s">
-        <v>72</v>
-      </c>
       <c r="S13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V13" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="W13" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-platform-form.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-platform-form.xlsx
@@ -21,12 +21,12 @@
     <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
     <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="112">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2021-02-02</t>
+    <t>2021-10-13</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2164,6 +2164,21 @@
   </si>
   <si>
     <t>40</t>
+  </si>
+  <si>
+    <t>test.name</t>
+  </si>
+  <si>
+    <t>测试2</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>542</t>
   </si>
 </sst>
 </file>
@@ -3188,7 +3203,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3382,8 +3397,9 @@
       <c r="E11" t="s">
         <v>93</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <f>表单配置!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G11" t="s">
         <v>94</v>
@@ -3426,8 +3442,9 @@
       <c r="E12" t="s">
         <v>93</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <f>表单配置!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G12" t="s">
         <v>99</v>
@@ -3470,8 +3487,9 @@
       <c r="E13" t="s">
         <v>93</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <f>表单配置!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G13" t="s">
         <v>103</v>
@@ -3511,6 +3529,51 @@
       </c>
       <c r="W13" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" t="n">
+        <f>表单配置!$E$8</f>
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" t="s">
+        <v>109</v>
+      </c>
+      <c r="L14" t="s">
+        <v>110</v>
+      </c>
+      <c r="M14" t="s">
+        <v>98</v>
+      </c>
+      <c r="N14" t="s">
+        <v>73</v>
+      </c>
+      <c r="O14" t="s">
+        <v>73</v>
+      </c>
+      <c r="R14" t="s">
+        <v>73</v>
+      </c>
+      <c r="S14" t="s">
+        <v>74</v>
+      </c>
+      <c r="T14" t="s">
+        <v>74</v>
+      </c>
+      <c r="V14" t="s">
+        <v>75</v>
+      </c>
+      <c r="W14" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
